--- a/ORG.xlsx
+++ b/ORG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6F8001-5856-44B8-A9D1-8FF3E8B2937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D932E5-00F7-4C56-B6D4-400636C2706B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26655" yWindow="975" windowWidth="26490" windowHeight="19650" xr2:uid="{471F73C5-A672-4509-93D9-A79A26407ABA}"/>
+    <workbookView xWindow="-45120" yWindow="3870" windowWidth="38700" windowHeight="15345" xr2:uid="{471F73C5-A672-4509-93D9-A79A26407ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -226,7 +226,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,10 +621,14 @@
   <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -826,13 +829,13 @@
       <c r="L4" s="4">
         <v>29.198</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="4">
         <v>114.199</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="4">
         <v>105.01900000000001</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="4">
         <v>106.48099999999999</v>
       </c>
     </row>
